--- a/AWS SA LAB Credentials.xlsx
+++ b/AWS SA LAB Credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ahmad\Desktop\Intellipaat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64487011-0EBA-47A4-A573-CADDA8EC0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C470D-9164-4AD9-B515-013C6BDFB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BC01C13-7A80-4246-B594-354B9BD9D5F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Participant Name</t>
   </si>
@@ -105,30 +105,6 @@
   </si>
   <si>
     <t>YOUR ID</t>
-  </si>
-  <si>
-    <t>vV5)f&amp;6a</t>
-  </si>
-  <si>
-    <t>gO7PJ=!*</t>
-  </si>
-  <si>
-    <t>cYD399|J</t>
-  </si>
-  <si>
-    <t>1EdVO7h#</t>
-  </si>
-  <si>
-    <t>clcO95_{</t>
-  </si>
-  <si>
-    <t>|frLd*3$</t>
-  </si>
-  <si>
-    <t>xC0{o_!D</t>
-  </si>
-  <si>
-    <t>zlI2D|l]</t>
   </si>
   <si>
     <t>Shashikantha</t>
@@ -249,6 +225,9 @@
       </rPr>
       <t>kannan.murugesan@socgen.com</t>
     </r>
+  </si>
+  <si>
+    <t>intel@123</t>
   </si>
 </sst>
 </file>
@@ -362,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -371,7 +350,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,14 +673,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="2" bestFit="1" customWidth="1"/>
@@ -737,13 +715,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -757,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -777,13 +755,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -797,13 +775,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>6</v>
@@ -817,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -837,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -857,13 +835,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>5</v>
@@ -877,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>6</v>
@@ -918,8 +896,10 @@
     <hyperlink ref="C7" r:id="rId8" xr:uid="{0A4D80B9-94EC-48F5-B34A-2168FB13EEE3}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{93A9B2DF-6920-4647-861B-E7768FB4EB9B}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{5291211B-BAB8-48D1-B661-F08FF749424F}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{5CBA1F4E-CB4B-4DC5-8605-20F349E31FEB}"/>
+    <hyperlink ref="D3:D9" r:id="rId12" display="intel@123" xr:uid="{92FBC15F-8C4D-4968-8CA4-EEE25FA17172}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>